--- a/project/uploads/93/split_output/10贴字规范.xlsx
+++ b/project/uploads/93/split_output/10贴字规范.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codespace\web-program\project\uploads\93\split_output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codespace\temp\webprogram\project\uploads\93\split_output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{23BE9F8B-E053-4332-9963-C96573E8FAAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{952A62EB-95FC-43C0-B072-F4E5DEA5CEAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{86F06A04-6D02-4DDF-8D16-CF4DAAAE942A}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="8170" xr2:uid="{93E7D99D-D989-464E-9183-8FB9FD3DADEF}"/>
   </bookViews>
   <sheets>
     <sheet name="10贴字规范" sheetId="1" r:id="rId1"/>
@@ -1896,7 +1896,7 @@
         <xdr:cNvPr id="2" name="矩形 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5314B50C-1B5A-4704-92D9-79B4778760B9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F71BD64-F099-45A2-9A38-3F27992AC0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1904,7 +1904,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1831340" y="1225550"/>
+          <a:off x="1830070" y="1235710"/>
           <a:ext cx="5490845" cy="1090930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2023,7 +2023,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D9A1C3E-6732-4A00-9845-B8F1D3EA7B6C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13D20360-6680-4571-98EF-7FA7FDF96817}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2039,7 +2039,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1817370" y="2799715"/>
+          <a:off x="1816100" y="2809875"/>
           <a:ext cx="4572000" cy="733425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2071,7 +2071,7 @@
         <xdr:cNvPr id="4" name="下箭头 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC7530CF-62B4-418E-9B6A-602CD3BABA7E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78A82849-A625-4855-AC8C-31A7EA8910AF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2079,7 +2079,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3712845" y="1891665"/>
+          <a:off x="3711575" y="1901825"/>
           <a:ext cx="523875" cy="828675"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
@@ -7707,7 +7707,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B96D550-CBDD-46A1-B6AA-AA74088D0520}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626DFE4B-0D1C-4542-87F5-192AE866D3D7}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -7717,13 +7717,13 @@
       <selection activeCell="B4" sqref="B4:B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.59765625" customWidth="1"/>
-    <col min="2" max="2" width="84.59765625" style="41" customWidth="1"/>
+    <col min="1" max="1" width="16.58203125" customWidth="1"/>
+    <col min="2" max="2" width="84.58203125" style="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7741,7 +7741,7 @@
       <c r="B2" s="4"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="37" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6" t="s">
         <v>4</v>
@@ -7988,7 +7988,7 @@
       <c r="B51" s="15"/>
       <c r="D51" s="2"/>
     </row>
-    <row r="52" spans="1:4" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
       <c r="B52" s="15"/>
       <c r="D52" s="2"/>
@@ -8013,7 +8013,7 @@
       <c r="B56" s="16"/>
       <c r="D56" s="2"/>
     </row>
-    <row r="57" spans="1:4" ht="52.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="52" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
       <c r="B57" s="10"/>
       <c r="D57" s="2"/>
@@ -8148,7 +8148,7 @@
       <c r="B83" s="18"/>
       <c r="D83" s="2"/>
     </row>
-    <row r="84" spans="1:4" ht="43.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" ht="44" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5"/>
       <c r="B84" s="19"/>
     </row>
@@ -8264,7 +8264,7 @@
       <c r="A112" s="5"/>
       <c r="B112" s="25"/>
     </row>
-    <row r="113" spans="1:2" ht="85.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" ht="86" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="5"/>
       <c r="B113" s="26"/>
     </row>
@@ -8332,15 +8332,15 @@
       <c r="A129" s="5"/>
       <c r="B129" s="28"/>
     </row>
-    <row r="130" spans="1:2" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" ht="35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="5"/>
       <c r="B130" s="29"/>
     </row>
-    <row r="131" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="5"/>
       <c r="B131" s="28"/>
     </row>
-    <row r="132" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="30"/>
       <c r="B132" s="28"/>
     </row>
@@ -8348,143 +8348,143 @@
       <c r="A133" s="30"/>
       <c r="B133" s="26"/>
     </row>
-    <row r="134" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="30"/>
       <c r="B134" s="28"/>
     </row>
-    <row r="135" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="30"/>
       <c r="B135" s="28"/>
     </row>
-    <row r="136" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="30"/>
       <c r="B136" s="28"/>
     </row>
-    <row r="137" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="30"/>
       <c r="B137" s="28"/>
     </row>
-    <row r="138" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="30"/>
       <c r="B138" s="28"/>
     </row>
-    <row r="139" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="30"/>
       <c r="B139" s="28"/>
     </row>
-    <row r="140" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="30"/>
       <c r="B140" s="28"/>
     </row>
-    <row r="141" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="30"/>
       <c r="B141" s="28"/>
     </row>
-    <row r="142" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="30"/>
       <c r="B142" s="28"/>
     </row>
-    <row r="143" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="30"/>
       <c r="B143" s="28"/>
     </row>
-    <row r="144" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="30"/>
       <c r="B144" s="28"/>
     </row>
-    <row r="145" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="30"/>
       <c r="B145" s="28"/>
     </row>
-    <row r="146" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="30"/>
       <c r="B146" s="28"/>
     </row>
-    <row r="147" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="30"/>
       <c r="B147" s="28"/>
     </row>
-    <row r="148" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="30"/>
       <c r="B148" s="28"/>
     </row>
-    <row r="149" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="30"/>
       <c r="B149" s="28"/>
     </row>
-    <row r="150" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="30"/>
       <c r="B150" s="28"/>
     </row>
-    <row r="151" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="30"/>
       <c r="B151" s="28"/>
     </row>
-    <row r="152" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="30"/>
       <c r="B152" s="28"/>
     </row>
-    <row r="153" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="30"/>
       <c r="B153" s="28"/>
     </row>
-    <row r="154" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="30"/>
       <c r="B154" s="28"/>
     </row>
-    <row r="155" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="30"/>
       <c r="B155" s="28"/>
     </row>
-    <row r="156" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="30"/>
       <c r="B156" s="28"/>
     </row>
-    <row r="157" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="30"/>
       <c r="B157" s="28"/>
     </row>
-    <row r="158" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="30"/>
       <c r="B158" s="28"/>
     </row>
-    <row r="159" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="30"/>
       <c r="B159" s="28"/>
     </row>
-    <row r="160" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="30"/>
       <c r="B160" s="28"/>
     </row>
-    <row r="161" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="30"/>
       <c r="B161" s="28"/>
     </row>
-    <row r="162" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="30"/>
       <c r="B162" s="28"/>
     </row>
-    <row r="163" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="30"/>
       <c r="B163" s="28"/>
     </row>
-    <row r="164" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="30"/>
       <c r="B164" s="28"/>
     </row>
-    <row r="165" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="30"/>
       <c r="B165" s="28"/>
     </row>
-    <row r="166" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="30"/>
       <c r="B166" s="28"/>
     </row>
-    <row r="167" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="30"/>
       <c r="B167" s="23"/>
     </row>
-    <row r="168" spans="1:2" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="31"/>
       <c r="B168" s="32"/>
     </row>
@@ -8498,129 +8498,129 @@
       <c r="A170" s="5"/>
       <c r="B170" s="34"/>
     </row>
-    <row r="171" spans="1:2" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" ht="38" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="5"/>
       <c r="B171" s="35"/>
     </row>
-    <row r="172" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="5"/>
       <c r="B172" s="36"/>
     </row>
-    <row r="173" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="5"/>
       <c r="B173" s="36"/>
     </row>
-    <row r="174" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="5"/>
       <c r="B174" s="37"/>
     </row>
-    <row r="175" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="5"/>
       <c r="B175" s="37"/>
     </row>
-    <row r="176" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="5"/>
       <c r="B176" s="38"/>
     </row>
-    <row r="177" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="5"/>
       <c r="B177" s="39"/>
     </row>
-    <row r="178" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="5"/>
       <c r="B178" s="40"/>
     </row>
-    <row r="179" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="5"/>
       <c r="B179" s="40"/>
     </row>
-    <row r="180" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="5"/>
       <c r="B180" s="40"/>
     </row>
-    <row r="181" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="5"/>
       <c r="B181" s="40"/>
     </row>
-    <row r="182" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="5"/>
       <c r="B182" s="40"/>
     </row>
-    <row r="183" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="5"/>
       <c r="B183" s="40"/>
     </row>
-    <row r="184" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="5"/>
       <c r="B184" s="40"/>
     </row>
-    <row r="185" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="5"/>
       <c r="B185" s="40"/>
     </row>
-    <row r="186" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="5"/>
       <c r="B186" s="40"/>
     </row>
-    <row r="187" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="5"/>
       <c r="B187" s="40"/>
     </row>
-    <row r="188" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="5"/>
       <c r="B188" s="40"/>
     </row>
-    <row r="189" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="5"/>
       <c r="B189" s="40"/>
     </row>
-    <row r="190" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="5"/>
       <c r="B190" s="40"/>
     </row>
-    <row r="191" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="5"/>
       <c r="B191" s="40"/>
     </row>
-    <row r="192" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="5"/>
       <c r="B192" s="40"/>
     </row>
-    <row r="193" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="A169:A192"/>
@@ -8636,7 +8636,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D1" location="目录!A1" display="返回" xr:uid="{3854E427-C839-4435-AD78-4CF7029A0D41}"/>
+    <hyperlink ref="D1" location="目录!A1" display="返回" xr:uid="{D9D366B1-23A1-4941-AF61-1BEE17868D3E}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="29" orientation="portrait" r:id="rId1"/>
